--- a/refs/MatFin.xlsx
+++ b/refs/MatFin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfpdr\Google Drive\Palestras\AvaliacaoAlugueis\refs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36703C43-8549-4315-A271-5055D540A8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C31C93-6DCA-4E55-942D-69D0090412E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9389C8A3-18A9-4081-9DD7-8C6F50757DD9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9389C8A3-18A9-4081-9DD7-8C6F50757DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="MatFin" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>A</t>
   </si>
@@ -229,6 +229,33 @@
   </si>
   <si>
     <t>FRC_C</t>
+  </si>
+  <si>
+    <t>FRC(15%,5)</t>
+  </si>
+  <si>
+    <t>FRC(15%,4)</t>
+  </si>
+  <si>
+    <t>Projeto 1</t>
+  </si>
+  <si>
+    <t>Projeto 2</t>
+  </si>
+  <si>
+    <t>VGV</t>
+  </si>
+  <si>
+    <t>Lucratividade</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>Investimento</t>
+  </si>
+  <si>
+    <t>Rentabilidade</t>
   </si>
 </sst>
 </file>
@@ -239,12 +266,12 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;R$&quot;\ * #,##0.0000_-;\-&quot;R$&quot;\ * #,##0.0000_-;_-&quot;R$&quot;\ * &quot;-&quot;????_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;????_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="177" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;R$&quot;\ * #,##0.0000_-;\-&quot;R$&quot;\ * #,##0.0000_-;_-&quot;R$&quot;\ * &quot;-&quot;????_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;????_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="170" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -307,7 +334,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -316,20 +343,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -669,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DEAB5D-F467-4607-A8E2-0004E1882D74}">
   <dimension ref="B1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1042,114 +1075,331 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2788D48D-2BF5-4254-8BA7-C04ED494FCB8}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="22">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="22">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1000000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="23">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="23">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D8" s="3">
+        <f>IRR(D11:D16,25%)</f>
+        <v>0.28649290249767589</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
-        <f>IRR(B5:B10,25%)</f>
-        <v>0.28649290249767589</v>
-      </c>
-      <c r="E3" s="3">
-        <f>IRR(E5:E9,25%)</f>
+      <c r="H8" s="3">
+        <f>IRR(H11:H15,25%)</f>
         <v>0.34903445656115561</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f>-D5</f>
         <v>-1000000</v>
       </c>
-      <c r="C5">
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="H11" s="2">
+        <f>-H5</f>
         <v>-800000</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <f>$D$7</f>
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="2">
+        <f>$D$6/$D$4*C12</f>
         <v>400000</v>
       </c>
-      <c r="C6">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G12" s="1">
+        <f>$H$7</f>
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="2">
+        <f>$H$6/$H$4*G12</f>
         <v>400000</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <f>$D$7</f>
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="2">
+        <f>$D$6/$D$4*C13</f>
         <v>400000</v>
       </c>
-      <c r="C7">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G13" s="1">
+        <f t="shared" ref="G13:G16" si="0">$H$7</f>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13:H16" si="1">$H$6/$H$4*G13</f>
         <v>400000</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <f>$D$7</f>
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="2">
+        <f>$D$6/$D$4*C14</f>
         <v>400000</v>
       </c>
-      <c r="C8">
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
         <v>400000</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <f>$D$7</f>
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="2">
+        <f>$D$6/$D$4*C15</f>
         <v>400000</v>
       </c>
-      <c r="C9">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
         <v>400000</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>$D$7</f>
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="2">
+        <f>$D$6/$D$4*C16</f>
         <v>400000</v>
       </c>
-      <c r="C10">
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="20"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="15">
+        <f>$C$1*(1+$C$1)^D4/((1+$C$1)^D4-1)</f>
+        <v>0.29831555246152841</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="15">
+        <f>$C$1*(1+$C$1)^H4/((1+$C$1)^H4-1)</f>
+        <v>0.35026535159085798</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="13">
+        <f>D11+D12/D19</f>
+        <v>340862.03920456045</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="13">
+        <f>H11+H12/H19</f>
+        <v>341991.34508524463</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="20">
+        <f>D11+NPV(C1,D12:D16)</f>
+        <v>340862.03920456115</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="20">
+        <f>H11+NPV(C1,H12:H16)</f>
+        <v>341991.34508524509</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="7">
+        <f>D20/D5</f>
+        <v>0.34086203920456043</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="7">
+        <f>H20/H5</f>
+        <v>0.42748918135655578</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/refs/MatFin.xlsx
+++ b/refs/MatFin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfpdr\Google Drive\Palestras\AvaliacaoAlugueis\refs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210EE0CA-D0C8-43B1-A2D6-C5659567B324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F820745-44D3-4814-B3EE-3738C5FCDDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="844" activeTab="4" xr2:uid="{9389C8A3-18A9-4081-9DD7-8C6F50757DD9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="844" activeTab="4" xr2:uid="{9389C8A3-18A9-4081-9DD7-8C6F50757DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="MatFin" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
   <si>
     <t>A</t>
   </si>
@@ -459,6 +459,36 @@
   </si>
   <si>
     <t>FAC</t>
+  </si>
+  <si>
+    <t>2. Aquisição de imóvel para moradia com entrada (20%) + financiamento (80%)</t>
+  </si>
+  <si>
+    <t>3. Aquisição de imóvel para moradia com entrada (20%) + financiamento (80%), com parcelas e aluguéis variando</t>
+  </si>
+  <si>
+    <t>4. Aquisição e venda de terreno considerando inflação (Machline, p. 78)</t>
+  </si>
+  <si>
+    <t>Aquisição</t>
+  </si>
+  <si>
+    <t>(em 1960)</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>(em 1964</t>
+  </si>
+  <si>
+    <t>(1964-1960)</t>
+  </si>
+  <si>
+    <t>Taxa real (i)</t>
+  </si>
+  <si>
+    <t>Inflação (d)</t>
   </si>
 </sst>
 </file>
@@ -475,12 +505,12 @@
     <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;????_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="170" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;?????_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.000_-;\-&quot;R$&quot;\ * #,##0.000_-;_-&quot;R$&quot;\ * &quot;-&quot;???_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;?????_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;?????_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="_-&quot;R$&quot;\ * #,##0.000_-;\-&quot;R$&quot;\ * #,##0.000_-;_-&quot;R$&quot;\ * &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;?????_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -543,7 +573,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -572,14 +602,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1665,7 +1696,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,773 +2261,841 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9914BB19-52EF-4AFD-A2EC-7F1803C5ACEA}">
-  <dimension ref="B4:N54"/>
+  <dimension ref="A4:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="E4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="1">
         <v>0.1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
         <v>0.1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="1">
+      <c r="L5" s="1">
         <v>0.1</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="2">
         <v>400000</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>100000</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2">
+      <c r="L6" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="2">
         <v>3000</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>400000</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="2">
+      <c r="L7" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10">
+      <c r="B8" s="10">
         <v>0.3</v>
       </c>
-      <c r="D8" s="20">
-        <f>C8*C7</f>
+      <c r="C8" s="20">
+        <f>B8*B7</f>
         <v>900</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2">
         <v>4000</v>
       </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>4000</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="2">
+      <c r="L9" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="14">
+      <c r="B10" s="14">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1">
+      <c r="L10" s="1">
         <v>0.02</v>
       </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="21">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B5-B9</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L12" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-0.02</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="15">
+        <f>B12*(1+B12)^B10/((1+B12)^B10-1)</f>
+        <v>9.3050575311267647E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13">
+        <f>F5*(1+F5)^F11/((1+F5)^F11-1)</f>
+        <v>0.1060792482526339</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="21">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12">
+        <f>-B6+12*(B7-B8)/B13</f>
+        <v>-13152.311207245919</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="20">
+        <f>F10*(F6+F7)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>((1+B12)^B10-1)/(1+B12)^B10</f>
+        <v>0.91348172448867393</v>
+      </c>
+      <c r="C15">
+        <f>1000000/B15</f>
+        <v>1094712.6507207958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16">
+        <f>1/(1+F5)^F11</f>
+        <v>5.7308553301167964E-2</v>
+      </c>
+      <c r="M16" s="20">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="34">
+        <f>-(F6+F7)+12*(F9-F8)/F13+F14*(F5-F13)*F16</f>
+        <v>-386911.8656883919</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17">
+        <f>($L$5+L11)*(1+($L$5+L11))^$L$13/((1+($L$5+L11))^$L$13-1)</f>
+        <v>8.8827433387272267E-2</v>
+      </c>
+      <c r="M17" s="20">
+        <f>12*L9/L17</f>
+        <v>540373.60047011927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18">
+        <f>($L$5+L10)*(1+($L$5+L10))^$L$13/((1+($L$5+L10))^$L$13-1)</f>
+        <v>0.12414365755194319</v>
+      </c>
+      <c r="M18" s="20">
+        <f>-12*L8/L18</f>
+        <v>-386648.83044803335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="20">
+        <f>L12*(L6+L7)/(1+L5)^L13</f>
+        <v>5730.8553301167958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="L11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="21">
+      <c r="E20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="34">
+        <f>-L6+(-12*L8)/L18+12*L9/L17+L12*(L6+L7)/(1+L5)^L13</f>
+        <v>59455.625352202725</v>
+      </c>
+      <c r="M20" s="34">
+        <f>SUM(M16:M19)</f>
+        <v>59455.625352202725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="20">
+        <f>B22*B7</f>
+        <v>2400</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="9">
+        <f>IRR(B26:B56,B21)</f>
+        <v>9.6009215105995471E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <f>1964-1960</f>
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25">
+        <f>(F22/F21)^(1/F24)-1</f>
+        <v>0.73205080756887742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <f>-20%*B6</f>
+        <v>-80000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="3">
+        <f>(F25-F23)/(1+F23)</f>
+        <v>0.1547005383792516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <f>12*$B$7*C27*(1-$B$22)</f>
+        <v>7199.9999999999982</v>
+      </c>
+      <c r="C27">
+        <f>(1+$B$9)^(A27-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <f>12*$B$7*C28*(1-$B$22)</f>
+        <v>7307.9999999999982</v>
+      </c>
+      <c r="C28" s="11">
+        <f>(1+$B$9)^(A28-1)</f>
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <f>12*$B$7*C29*(1-$B$22)</f>
+        <v>7417.6199999999963</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29:C56" si="0">(1+$B$9)^(A29-1)</f>
+        <v>1.0302249999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <f>12*$B$7*C30*(1-$B$22)</f>
+        <v>7528.8842999999952</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0456783749999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <f>12*$B$7*C31*(1-$B$22)</f>
+        <v>7641.8175644999938</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0613635506249994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2">
+        <f>12*$B$7*C32*(1-$B$22)</f>
+        <v>7756.4448279674934</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0772840038843743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2">
+        <f>12*$B$7*C33*(1-$B$22)</f>
+        <v>7872.7915003870039</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0934432639426397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
+        <f>12*$B$7*C34*(1-$B$22)</f>
+        <v>7990.8833728928075</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1098449129017791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
+        <f>12*$B$7*C35*(1-$B$22)</f>
+        <v>8110.7466234861986</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1264925865953057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2">
+        <f>12*$B$7*C36*(1-$B$22)</f>
+        <v>8232.4078228384915</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1433899753942351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2">
+        <f>12*$B$7*C37*(1-$B$22)</f>
+        <v>8355.8939401810676</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1605408250251485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <f>12*$B$7*C38*(1-$B$22)</f>
+        <v>8481.2323492837841</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1779489374005256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2">
+        <f>12*$B$7*C39*(1-$B$22)</f>
+        <v>8608.450834523037</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1956181714615333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2">
+        <f>12*$B$7*C40*(1-$B$22)</f>
+        <v>8737.5775970408813</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2135524440334562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2">
+        <f>12*$B$7*C41*(1-$B$22)</f>
+        <v>8868.6412609964937</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2317557306939577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2">
+        <f>12*$B$7*C42*(1-$B$22)</f>
+        <v>9001.6708799114404</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2502320666543669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43" s="2">
+        <f>12*$B$7*C43*(1-$B$22)</f>
+        <v>9136.6959431101095</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2689855476541823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2">
+        <f>12*$B$7*C44*(1-$B$22)</f>
+        <v>9273.7463822567606</v>
+      </c>
+      <c r="C44" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2880203308689948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2">
+        <f>12*$B$7*C45*(1-$B$22)</f>
+        <v>9412.8525779906122</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3073406358320296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2">
+        <f>12*$B$7*C46*(1-$B$22)</f>
+        <v>9554.0453666604699</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" si="0"/>
+        <v>1.32695074536951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47" s="2">
+        <f>12*$B$7*C47*(1-$B$22)</f>
+        <v>9697.3560471603741</v>
+      </c>
+      <c r="C47" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3468550065500522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48" s="2">
+        <f>12*$B$7*C48*(1-$B$22)</f>
+        <v>9842.8163878677788</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3670578316483029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2">
+        <f>12*$B$7*C49*(1-$B$22)</f>
+        <v>9990.4586336857938</v>
+      </c>
+      <c r="C49" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3875636991230271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2">
+        <f>12*$B$7*C50*(1-$B$22)</f>
+        <v>10140.315513191079</v>
+      </c>
+      <c r="C50" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4083771546098725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" s="2">
+        <f>12*$B$7*C51*(1-$B$22)</f>
+        <v>10292.420245888943</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4295028119290203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>26</v>
+      </c>
+      <c r="B52" s="2">
+        <f>12*$B$7*C52*(1-$B$22)</f>
+        <v>10446.806549577277</v>
+      </c>
+      <c r="C52" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4509453541079556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53" s="2">
+        <f>12*$B$7*C53*(1-$B$22)</f>
+        <v>10603.508647820934</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4727095344195746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2">
+        <f>12*$B$7*C54*(1-$B$22)</f>
+        <v>10762.561277538247</v>
+      </c>
+      <c r="C54" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4948001774358681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2">
+        <f>12*$B$7*C55*(1-$B$22)</f>
+        <v>10923.999696701319</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5172221800974057</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>30</v>
       </c>
-      <c r="N11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3">
-        <f>C5-C9</f>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="15">
-        <f>C12*(1+C12)^C10/((1+C12)^C10-1)</f>
-        <v>9.3050575311267647E-2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="21">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13">
-        <f>M5*(1+M5)^M11/((1+M5)^M11-1)</f>
-        <v>0.1060792482526339</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="12">
-        <f>-C6+12*(C7-C8)/C13</f>
-        <v>-13152.311207245919</v>
-      </c>
-      <c r="L14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="20">
-        <f>M10*(M6+M7)</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <f>((1+C12)^C10-1)/(1+C12)^C10</f>
-        <v>0.91348172448867393</v>
-      </c>
-      <c r="D15">
-        <f>1000000/C15</f>
-        <v>1094712.6507207958</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="20">
-        <v>-100000</v>
-      </c>
-      <c r="L16" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16">
-        <f>1/(1+M5)^M11</f>
-        <v>5.7308553301167964E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <f>($G$5+G11)*(1+($G$5+G11))^$G$13/((1+($G$5+G11))^$G$13-1)</f>
-        <v>8.8827433387272267E-2</v>
-      </c>
-      <c r="H17" s="20">
-        <f>12*G9/G17</f>
-        <v>540373.60047011927</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="20">
-        <f>-(M6+M7)+12*(M9-M8)/M13+M14*(M5-M13)*M16</f>
-        <v>-386911.8656883919</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18">
-        <f>($G$5+G10)*(1+($G$5+G10))^$G$13/((1+($G$5+G10))^$G$13-1)</f>
-        <v>0.12414365755194319</v>
-      </c>
-      <c r="H18" s="20">
-        <f>-12*G8/G18</f>
-        <v>-386648.83044803335</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="20">
-        <f>G12*(G6+G7)/(1+G5)^G13</f>
-        <v>5730.8553301167958</v>
-      </c>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D20" s="20">
-        <f>C20*C7</f>
-        <v>2400</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="20">
-        <f>-G6+(-12*G8)/G18+12*G9/G17+G12*(G6+G7)/(1+G5)^G13</f>
-        <v>59455.625352202725</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="9">
-        <f>IRR(C24:C54,C19)</f>
-        <v>9.6009215105995471E-2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <f>-20%*C6</f>
-        <v>-80000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <f>12*$C$7*D25*(1-$C$20)</f>
-        <v>7199.9999999999982</v>
-      </c>
-      <c r="D25">
-        <f>(1+$C$9)^(B25-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" ref="C26:C54" si="0">12*$C$7*D26*(1-$C$20)</f>
-        <v>7307.9999999999982</v>
-      </c>
-      <c r="D26" s="11">
-        <f>(1+$C$9)^(B26-1)</f>
-        <v>1.0149999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B56" s="2">
+        <f>12*$B$7*C56*(1-$B$22)</f>
+        <v>11087.859692151838</v>
+      </c>
+      <c r="C56" s="11">
         <f t="shared" si="0"/>
-        <v>7417.6199999999963</v>
-      </c>
-      <c r="D27" s="11">
-        <f t="shared" ref="D27:D54" si="1">(1+$C$9)^(B27-1)</f>
-        <v>1.0302249999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="0"/>
-        <v>7528.8842999999952</v>
-      </c>
-      <c r="D28" s="11">
-        <f t="shared" si="1"/>
-        <v>1.0456783749999996</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="0"/>
-        <v>7641.8175644999938</v>
-      </c>
-      <c r="D29" s="11">
-        <f t="shared" si="1"/>
-        <v>1.0613635506249994</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="0"/>
-        <v>7756.4448279674934</v>
-      </c>
-      <c r="D30" s="11">
-        <f t="shared" si="1"/>
-        <v>1.0772840038843743</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="0"/>
-        <v>7872.7915003870039</v>
-      </c>
-      <c r="D31" s="11">
-        <f t="shared" si="1"/>
-        <v>1.0934432639426397</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>7990.8833728928075</v>
-      </c>
-      <c r="D32" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1098449129017791</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="0"/>
-        <v>8110.7466234861986</v>
-      </c>
-      <c r="D33" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1264925865953057</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="0"/>
-        <v>8232.4078228384915</v>
-      </c>
-      <c r="D34" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1433899753942351</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>11</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="0"/>
-        <v>8355.8939401810676</v>
-      </c>
-      <c r="D35" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1605408250251485</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="0"/>
-        <v>8481.2323492837841</v>
-      </c>
-      <c r="D36" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1779489374005256</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>13</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="0"/>
-        <v>8608.450834523037</v>
-      </c>
-      <c r="D37" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1956181714615333</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>14</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" si="0"/>
-        <v>8737.5775970408813</v>
-      </c>
-      <c r="D38" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2135524440334562</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="0"/>
-        <v>8868.6412609964937</v>
-      </c>
-      <c r="D39" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2317557306939577</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="0"/>
-        <v>9001.6708799114404</v>
-      </c>
-      <c r="D40" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2502320666543669</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" si="0"/>
-        <v>9136.6959431101095</v>
-      </c>
-      <c r="D41" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2689855476541823</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>18</v>
-      </c>
-      <c r="C42" s="2">
-        <f t="shared" si="0"/>
-        <v>9273.7463822567606</v>
-      </c>
-      <c r="D42" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2880203308689948</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>19</v>
-      </c>
-      <c r="C43" s="2">
-        <f t="shared" si="0"/>
-        <v>9412.8525779906122</v>
-      </c>
-      <c r="D43" s="11">
-        <f t="shared" si="1"/>
-        <v>1.3073406358320296</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="C44" s="2">
-        <f t="shared" si="0"/>
-        <v>9554.0453666604699</v>
-      </c>
-      <c r="D44" s="11">
-        <f t="shared" si="1"/>
-        <v>1.32695074536951</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>21</v>
-      </c>
-      <c r="C45" s="2">
-        <f t="shared" si="0"/>
-        <v>9697.3560471603741</v>
-      </c>
-      <c r="D45" s="11">
-        <f t="shared" si="1"/>
-        <v>1.3468550065500522</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>22</v>
-      </c>
-      <c r="C46" s="2">
-        <f t="shared" si="0"/>
-        <v>9842.8163878677788</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="1"/>
-        <v>1.3670578316483029</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>23</v>
-      </c>
-      <c r="C47" s="2">
-        <f t="shared" si="0"/>
-        <v>9990.4586336857938</v>
-      </c>
-      <c r="D47" s="11">
-        <f t="shared" si="1"/>
-        <v>1.3875636991230271</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <v>24</v>
-      </c>
-      <c r="C48" s="2">
-        <f t="shared" si="0"/>
-        <v>10140.315513191079</v>
-      </c>
-      <c r="D48" s="11">
-        <f t="shared" si="1"/>
-        <v>1.4083771546098725</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49">
-        <v>25</v>
-      </c>
-      <c r="C49" s="2">
-        <f t="shared" si="0"/>
-        <v>10292.420245888943</v>
-      </c>
-      <c r="D49" s="11">
-        <f t="shared" si="1"/>
-        <v>1.4295028119290203</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50">
-        <v>26</v>
-      </c>
-      <c r="C50" s="2">
-        <f t="shared" si="0"/>
-        <v>10446.806549577277</v>
-      </c>
-      <c r="D50" s="11">
-        <f t="shared" si="1"/>
-        <v>1.4509453541079556</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51">
-        <v>27</v>
-      </c>
-      <c r="C51" s="2">
-        <f t="shared" si="0"/>
-        <v>10603.508647820934</v>
-      </c>
-      <c r="D51" s="11">
-        <f t="shared" si="1"/>
-        <v>1.4727095344195746</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>28</v>
-      </c>
-      <c r="C52" s="2">
-        <f t="shared" si="0"/>
-        <v>10762.561277538247</v>
-      </c>
-      <c r="D52" s="11">
-        <f t="shared" si="1"/>
-        <v>1.4948001774358681</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>29</v>
-      </c>
-      <c r="C53" s="2">
-        <f t="shared" si="0"/>
-        <v>10923.999696701319</v>
-      </c>
-      <c r="D53" s="11">
-        <f t="shared" si="1"/>
-        <v>1.5172221800974057</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>30</v>
-      </c>
-      <c r="C54" s="2">
-        <f t="shared" si="0"/>
-        <v>11087.859692151838</v>
-      </c>
-      <c r="D54" s="11">
-        <f t="shared" si="1"/>
         <v>1.5399805127988668</v>
       </c>
     </row>
